--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -575,7 +575,7 @@
         <v>45477</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45513</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45156</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45209</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45039</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45838</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44998</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44771</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45905.48784722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44533</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45882</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44956.65706018519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45679.33765046296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44578</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44986.31693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45666</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45142</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44596.64195601852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45769</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45219</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>45899.76378472222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45323</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>45883</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>46044</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44848</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44790</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44624</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44242</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44503</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>44608</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44838</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44735.4858912037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44344</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>45140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>45558</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45007</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>45713.6522800926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45754.65902777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45798.3537037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45348</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45740</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>45596</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45722.56230324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45931.41503472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>45400</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45112.3309375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44798</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44474.66891203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>45946.37638888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45212</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>44971</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45965.27729166667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45883</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45740</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>45156</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45982.29865740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>45643.70822916667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45989</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>45989</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>46035.78097222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45586.35740740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44624</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45163</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44637.78113425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>46056</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44911</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44907.73267361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44637</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45166</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44865</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45350.58791666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45377</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44553.50178240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44854.67711805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44503</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45740.64418981481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44360</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44281</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44293</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44414</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44724.49127314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44536</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44458</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44614</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44535</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44281</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44414</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44301</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44360.70498842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44452</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44309</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44722.6921875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44869</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44637</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44425.46734953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44473</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44752</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44720.45049768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44873</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44365</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44745.82652777778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44292</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44839</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44579</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44454</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44350</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44381.50788194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44246</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44260.53194444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44425.48262731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44435</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44423</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44423</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44463</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44360.70159722222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44770</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44323</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44769</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44448</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44365</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44830</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44398</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44643</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44474</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44270</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44301</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44769</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44839</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44886</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44854.69221064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44697</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44450.02509259259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44371.68461805556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44302</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44769</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44846</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44302.41196759259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44384</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44350</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44636</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44328</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44252</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44384</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44386</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44433</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44459</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44752</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44752</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44715</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44566</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>44472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>44610</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44643</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44453</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44448.35070601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44705</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>44636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>44980</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45378.50372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45531</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>45555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45510.55208333334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44807</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>44517.39820601852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44785.33699074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>44914.6196875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>44881</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>44986</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44544</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>45510.53577546297</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>44463</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>45239</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>44448</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>44473</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45636.37457175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45068.36099537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45225</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45597.34841435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45226</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45270</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44970</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45166</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45149</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45309</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44733</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45798.45195601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45798.37215277777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45702</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44302</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45209.44743055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45798.42364583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45798.38046296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44931</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45887.51916666667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45686</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45887.51643518519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44979</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45805</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45888.64476851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45147</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45540.43278935185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44421</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44859</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45244.67170138889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>44624</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44624</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45684.48369212963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45163</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45740</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45817.35372685185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44774</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45895.62396990741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>44425</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>45311.73829861111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44588</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>45299</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>44896</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44872.59371527778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45903.37440972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45156.63482638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45821.66907407407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44859</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44908</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45228</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45826</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45034</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45826</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44826</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>44602</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45830</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45670</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45830</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45920</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45905</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45398.45043981481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45089</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45924.44363425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45905.49965277778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45925.53314814815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45905.55394675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45905</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45925.52625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45926.50364583333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44761.47006944445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45566</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45581.37462962963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45260.36072916666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44838</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44302</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45930.42990740741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44432</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45670</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45573.31581018519</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45358.37712962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45933.35893518518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45933.43011574074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45932.62283564815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45932</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44722</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44722</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44616</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44466</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45845</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45553</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45103.48629629629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45940</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45945.44395833334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>45343</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45644</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45888</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45946.34836805556</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45213</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>45702.71366898148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>45852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>45729</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>45104</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45322.59059027778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45280.90018518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44524</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44899.4174537037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44522</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45869</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45869</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>45869</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45952</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45411</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45954.61589120371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44979.27921296296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45555</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44246</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44237.34643518519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45081</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45081</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45182</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44323</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>44988</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>45228</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>45022</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45632</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45022</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44897</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45964.76424768518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45964.75847222222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45740</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>45880.79771990741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45331</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45066</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>44979</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45330</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45141</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44518</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44864</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44855</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45250</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45250</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44855</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>44572</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45974.5197337963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45974</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45528</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45979.28907407408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45306</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44896</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44970</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44449</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45140</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45672</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>45713.66100694444</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45209</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45244</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>45993.36152777778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45993.32717592592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45993.3318287037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45993.3421875</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45993.34030092593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45993.34483796296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>46035.80518518519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45048</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45091.32778935185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45056</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>46037.63775462963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45994.3796412037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45574</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45230</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45995.41515046296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44566</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45995.36960648148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>46036.3375</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45718</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45618</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45994.50392361111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45073</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44624</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44378</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45740.36704861111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>44791</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45041</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44701</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>46000.44005787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>46000.26596064815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45740.6271875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45518.57210648148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45271.64175925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>46044.47234953703</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>46044</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45257.43989583333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>45632</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>45315</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45321</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>44676</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>44463</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>44297</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44297</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>45013</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>45230</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44285</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45551.58553240741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45518.56827546296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>44459</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>45163</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>44741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>44636</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44979.32887731482</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>46056.67122685185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>46044</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44887</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45161</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44911</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44425</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44953.54269675926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>45114.25847222222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>45161.53572916667</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>45253</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>45272</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44958</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>45719.8153125</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44907.71084490741</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44900</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45072.65648148148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45217.47643518518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>45114</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45299</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>45189</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45082</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
         <v>45030.30835648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45224</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44596</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44887</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45169</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44431</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>45225</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>45501.40141203703</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45555</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45600.30909722222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44846</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44292</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45161.52697916667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45250</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>44495</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>45211</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44814</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>45225.43978009259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44848</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45441.51645833333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32775,7 +32775,7 @@
         <v>44614</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         <v>45720.40424768518</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32889,7 +32889,7 @@
         <v>45230</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         <v>45540.43818287037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>45439.4372337963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44614</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>45667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44902.39163194445</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45327.68914351852</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45001</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>44263</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>45345.53630787037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44785.4987962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44648</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44358</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>44739</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45454.79756944445</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45723.44172453704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33883,7 +33883,7 @@
         <v>45752</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33940,7 +33940,7 @@
         <v>45478</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33997,7 +33997,7 @@
         <v>44425</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>45713.65885416666</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34111,7 +34111,7 @@
         <v>44580.82798611111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>45140</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>45755.41969907407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44819.65010416666</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44246</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45700</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44769</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45110</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45250</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45733.46799768518</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44260</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44263</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45211</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>45161</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44960</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34981,7 +34981,7 @@
         <v>45244</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45191</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45328</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>45175</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45036.84393518518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44907.39300925926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45365</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>45244</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>44242</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44634.55490740741</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45176</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>44260.58606481482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44624</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>45216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45180</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>45256.76922453703</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>45007</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>45448.56204861111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36022,7 +36022,7 @@
         <v>44250</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>45386</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36141,7 +36141,7 @@
         <v>44610.44100694444</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36198,7 +36198,7 @@
         <v>45328.60582175926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>45014</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>45671</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>45163.40603009259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44958</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>45777</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>45777.491875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>45777</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>45777.44011574074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>45776.62307870371</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>45776.80291666667</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45776</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45414</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36969,7 +36969,7 @@
         <v>45252.77672453703</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>45350.57226851852</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>45789</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>45196</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>44883.57304398148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37259,7 +37259,7 @@
         <v>44852.40068287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37316,7 +37316,7 @@
         <v>45008.36534722222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>45624.70232638889</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44248</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>45790.37265046296</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37544,7 +37544,7 @@
         <v>45790.38300925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>45790.57600694444</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>45791</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>45790.585625</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37772,7 +37772,7 @@
         <v>45790.36635416667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>45790.39479166667</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37886,7 +37886,7 @@
         <v>45792</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37943,7 +37943,7 @@
         <v>45610</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>45555</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38057,7 +38057,7 @@
         <v>45797.67208333333</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -575,7 +575,7 @@
         <v>45477</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45513</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45156</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45798</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45209</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45039</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45838</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45625</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44998</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44771</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>45905.48784722222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44533</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45882</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44956.65706018519</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         <v>45679.33765046296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>44578</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44986.31693287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45666</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>45142</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>44596.64195601852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>45769</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45219</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>45899.76378472222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>45839</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45600</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45323</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>45883</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>46044</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4148,7 @@
         <v>44848</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44790</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44624</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44242</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>44405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44503</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>44608</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         <v>44838</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44735.4858912037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>44344</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>45140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>45558</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45007</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>45713.6522800926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>45754.65902777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45798.3537037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45348</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45740</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>45596</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>45722.56230324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>45931.41503472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>45400</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45112.3309375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>44798</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>44474.66891203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>45946.37638888889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45212</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>44971</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45965.27729166667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45883</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45740</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>45156</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45982.29865740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>45643.70822916667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>45989</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>45989</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>46035.78097222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         <v>44439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>45586.35740740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44624</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45163</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44637.78113425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>46056</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44911</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44907.73267361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44637</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45166</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44865</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>45350.58791666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>45377</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>44553.50178240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44854.67711805556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44503</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>45740.64418981481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44360</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44281</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44293</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44414</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44724.49127314815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44536</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44458</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44614</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44535</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44281</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44414</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44301</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44250</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44411</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44360.70498842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44452</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44309</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44722.6921875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44869</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44637</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44425.46734953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44473</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44752</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>44720.45049768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44873</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44365</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>44769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44745.82652777778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44292</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>44461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44839</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44746</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44579</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44454</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44350</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>44381.50788194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>44807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>44246</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44260.53194444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>44425.48262731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44435</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44423</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44423</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44449</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44463</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44739</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44360.70159722222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44770</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44323</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44769</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44448</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44365</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44830</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44725</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44398</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44643</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44474</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         <v>44270</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44301</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44588</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44769</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>44839</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44886</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44854.69221064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44697</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44450.02509259259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44371.68461805556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44302</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44578</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44769</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>44846</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44302.41196759259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44384</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44350</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44636</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44328</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44440</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44252</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44384</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44386</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44433</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44459</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44752</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44752</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>44715</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44566</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>44472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>44610</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44643</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44453</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44448.35070601852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44705</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>44636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>44818</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>44980</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>44868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45378.50372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45531</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>45555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45510.55208333334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>44807</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>44517.39820601852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44785.33699074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>44914.6196875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>44881</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>44986</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44544</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>45510.53577546297</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>44796</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>44463</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>45239</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>44448</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>44473</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45636.37457175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45068.36099537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45225</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45597.34841435185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45226</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45720</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45270</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>44970</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45166</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45149</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45309</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44733</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>45798</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17303,7 +17303,7 @@
         <v>45798.45195601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>45798.37215277777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45702</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44302</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>45209.44743055556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>45798.42364583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>45798.38046296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>44522</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44931</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>45887.51916666667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45686</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45887.51643518519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44979</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45805</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45888.64476851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45147</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45540.43278935185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44421</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44859</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45244.67170138889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>44624</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>44624</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45684.48369212963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>45163</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>45740</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45817.35372685185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44774</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45895.62396990741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>44425</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>45311.73829861111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44588</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>45299</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>44896</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44872.59371527778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45903.37440972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45156.63482638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45821.66907407407</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44859</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45581</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45057</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44908</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45228</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45097</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45826</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45034</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45826</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44826</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>44602</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>45830</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45670</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45830</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45920</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45905</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45398.45043981481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45089</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45924.44363425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45905.49965277778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45925.53314814815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45905.55394675926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45905</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45925.52625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45926.50364583333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44761.47006944445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45566</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45581.37462962963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45260.36072916666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>44838</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>44302</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45930.42990740741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>44432</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45670</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45573.31581018519</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45358.37712962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45933.35893518518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45933.43011574074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>45932.62283564815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45932</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44722</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44722</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44616</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44466</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>45845</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45553</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>45103.48629629629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45940</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>45945.44395833334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>45343</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>45644</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>45888</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>45946.34836805556</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45213</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>45702.71366898148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>45852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>45729</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>45104</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45322.59059027778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45280.90018518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44862</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44524</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44899.4174537037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44522</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45869</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45869</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>45869</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45952</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45411</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45954.61589120371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>44979.27921296296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>45555</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>44246</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44237.34643518519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45081</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45081</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45182</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44323</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>44988</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>45228</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>45022</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45632</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45022</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44897</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45964.76424768518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45964.75847222222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45740</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>45880.79771990741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>44778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>45883</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45331</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45066</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>44979</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45330</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45141</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44518</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44864</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44855</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45250</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45250</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44855</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>44572</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45974.5197337963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45974</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45528</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45979.28907407408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45306</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44896</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>44970</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>44449</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26070,7 +26070,7 @@
         <v>45140</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26127,7 +26127,7 @@
         <v>45672</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45630</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26241,7 +26241,7 @@
         <v>45713.66100694444</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45209</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45244</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26474,7 +26474,7 @@
         <v>45993.36152777778</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45993.32717592592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26588,7 +26588,7 @@
         <v>45993.3318287037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45993.3421875</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26759,7 +26759,7 @@
         <v>45993.34030092593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45993.34483796296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>46035.80518518519</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         <v>45048</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45091.32778935185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45056</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>46037.63775462963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         <v>45994.3796412037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45574</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45230</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45995.41515046296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45119</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44566</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45995.36960648148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>46036.3375</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45718</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45618</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45994.50392361111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45073</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44624</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44378</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45740.36704861111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>44791</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45041</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45166</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44701</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>46000.44005787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>46000.26596064815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45740.6271875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44909</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45518.57210648148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45271.64175925926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>46044.47234953703</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>46044</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
         <v>45257.43989583333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>45632</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29052,7 +29052,7 @@
         <v>45315</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29109,7 +29109,7 @@
         <v>45321</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29166,7 +29166,7 @@
         <v>44676</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29223,7 +29223,7 @@
         <v>44463</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>44297</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44297</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>45013</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>45230</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>45230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>44285</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45551.58553240741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45518.56827546296</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>44459</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>45163</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>44741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>44636</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>44979.32887731482</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>46056.67122685185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>46044</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44887</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45068</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45161</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44911</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30492,7 +30492,7 @@
         <v>44425</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>44953.54269675926</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>45114.25847222222</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>45161.53572916667</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>45012</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>45253</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>45272</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>44958</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>45719.8153125</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44907.71084490741</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44900</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>45072.65648148148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>45217.47643518518</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31305,7 +31305,7 @@
         <v>45105</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>45114</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45299</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>45189</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45082</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
         <v>45030.30835648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45224</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44596</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>44887</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45169</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44431</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>45225</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>45501.40141203703</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45555</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45600.30909722222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>44846</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>44292</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45161.52697916667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45250</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32423,7 +32423,7 @@
         <v>44495</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
         <v>45211</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32542,7 +32542,7 @@
         <v>44814</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>45225.43978009259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44848</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45441.51645833333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32775,7 +32775,7 @@
         <v>44614</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         <v>45720.40424768518</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32889,7 +32889,7 @@
         <v>45230</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         <v>45540.43818287037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>45439.4372337963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>44614</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>45667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44902.39163194445</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44909</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33303,7 +33303,7 @@
         <v>45327.68914351852</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33360,7 +33360,7 @@
         <v>45001</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33422,7 +33422,7 @@
         <v>44263</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>45345.53630787037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44785.4987962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44648</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33650,7 +33650,7 @@
         <v>44358</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33707,7 +33707,7 @@
         <v>44739</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33764,7 +33764,7 @@
         <v>45454.79756944445</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33821,7 +33821,7 @@
         <v>45723.44172453704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33883,7 +33883,7 @@
         <v>45752</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33940,7 +33940,7 @@
         <v>45478</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33997,7 +33997,7 @@
         <v>44425</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>45713.65885416666</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34111,7 +34111,7 @@
         <v>44580.82798611111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>45140</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>45755.41969907407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>44819.65010416666</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>44246</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45700</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44769</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>45110</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45250</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45733.46799768518</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44260</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44263</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45211</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>45161</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44960</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34981,7 +34981,7 @@
         <v>45244</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45191</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45328</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>45175</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45036.84393518518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>44907.39300925926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45365</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>45244</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>44242</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>44634.55490740741</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45176</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>44260.58606481482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>44624</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>45216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45180</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>45256.76922453703</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>45007</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>45448.56204861111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36022,7 +36022,7 @@
         <v>44250</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>45386</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36141,7 +36141,7 @@
         <v>44610.44100694444</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36198,7 +36198,7 @@
         <v>45328.60582175926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>45014</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>45671</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36374,7 +36374,7 @@
         <v>45163.40603009259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36431,7 +36431,7 @@
         <v>44958</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36493,7 +36493,7 @@
         <v>45777</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36555,7 +36555,7 @@
         <v>45777.491875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>45777</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>45777.44011574074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36741,7 +36741,7 @@
         <v>45776.62307870371</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>45776.80291666667</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
         <v>45776</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45414</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36969,7 +36969,7 @@
         <v>45252.77672453703</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>45350.57226851852</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>45789</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>45196</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>44883.57304398148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37259,7 +37259,7 @@
         <v>44852.40068287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37316,7 +37316,7 @@
         <v>45008.36534722222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>45624.70232638889</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>44248</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>45790.37265046296</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37544,7 +37544,7 @@
         <v>45790.38300925926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>45790.57600694444</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37658,7 +37658,7 @@
         <v>45791</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>45790.585625</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37772,7 +37772,7 @@
         <v>45790.36635416667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37829,7 +37829,7 @@
         <v>45790.39479166667</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37886,7 +37886,7 @@
         <v>45792</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37943,7 +37943,7 @@
         <v>45610</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>45555</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38057,7 +38057,7 @@
         <v>45797.67208333333</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -575,7 +575,7 @@
         <v>45477</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45513</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>45156</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>45920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45209</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>45039</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>45798</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44452</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         <v>45518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45625</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44998</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44449</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>45002</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44771</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44533</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>45905.48784722222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         <v>45882</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45323</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>44956.65706018519</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45679.33765046296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44578</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>46071.61592592593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44986.31693287037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>45142</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>45666</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>44596.64195601852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>45769</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44495</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45219</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>45899.76378472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45839</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>45600</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44865</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>45883</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>46044</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>44411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>44848</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>44790</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>44624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44986</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>44405</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44503</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44608</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44624</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>44838</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>44735.4858912037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>44344</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45140</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>45558</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45007</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44454</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45754.65902777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>45348</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>45740</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45596</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>45722.56230324074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>45931.41503472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>45400</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45112.3309375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>44798</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>44474.66891203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>45883</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45212</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44971</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>45946.37638888889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45965.27729166667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>45156</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>45643.70822916667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45982.29865740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45989</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>45989</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>46035.78097222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>44439</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45586.35740740741</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>44624</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45163</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>44637.78113425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44911</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>46056</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>44907.73267361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44637</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>45166</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>45350.58791666666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>45377</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44553.50178240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44854.67711805556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>44503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>45740.64418981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45713.6522800926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45798.3537037037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
         <v>44360</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44281</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44293</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44724.49127314815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44414</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44536</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44458</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44614</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44535</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>44281</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>44414</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>44250</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
         <v>44360.70498842592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>44301</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>44411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>44452</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>44309</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>44722.6921875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44869</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>44455</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44473</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44637</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44425.46734953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44697</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44608</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44752</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44720.45049768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44873</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>44365</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44769</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44292</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44745.82652777778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>44746</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44839</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>44579</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44350</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44454</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44381.50788194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44413</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44435</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44423</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44423</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44879</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44260.53194444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44425.48262731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44449</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44739</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44360.70159722222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>44463</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44770</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44323</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>44448</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44769</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44365</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44640</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44830</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12708,7 +12708,7 @@
         <v>44725</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>44398</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44643</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>44474</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44270</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44301</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44588</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44769</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44839</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44886</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44854.69221064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44697</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44450.02509259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44371.68461805556</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44302</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44578</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44769</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44302.41196759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44384</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44636</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44328</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44440</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44252</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44384</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44386</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44433</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44459</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44752</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44752</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44715</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44566</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44862</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44610</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44643</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44453</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44448.35070601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44705</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>44818</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44636</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>44980</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>45531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>45555</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15395,7 +15395,7 @@
         <v>44868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>45378.50372685185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44517.39820601852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>45510.55208333334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>44807</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44785.33699074074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44914.6196875</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>44986</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44881</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44495</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44544</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45636.37457175926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44463</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45239</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45068.36099537037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45510.53577546297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>45597.34841435185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>45226</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45720</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>45482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45270</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45166</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44970</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>45149</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45309</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44733</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44302</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44522</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45209.44743055556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>44931</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45686</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45147</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45225</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45540.43278935185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44859</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>45244.67170138889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44624</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44624</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>45163</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>45740</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44774</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44425</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45887.51916666667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>45887.51643518519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45311.73829861111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44588</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45821.66907407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45299</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>44896</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44872.59371527778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45888.64476851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44859</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>45581</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>45057</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>45826</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>44908</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>45826</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45228</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45097</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45830</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45895.62396990741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45830</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44826</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44602</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45903.37440972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>45156.63482638889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>45670</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>45398.45043981481</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45089</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>45845</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>44761.47006944445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>45644</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45566</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45581.37462962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45260.36072916666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44838</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45702.71366898148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>44432</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>45729</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45670</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45573.31581018519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45358.37712962963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44722</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44722</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45920</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>44785</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45905</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45924.44363425926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45905.49965277778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45925.53314814815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44616</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45905.55394675926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45905</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44899.4174537037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45925.52625</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45869</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45869</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45869</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>45926.50364583333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44466</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45553</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45103.48629629629</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>44302</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45343</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45930.42990740741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45933.35893518518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45933.43011574074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>45932.62283564815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>45213</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>45932</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>45880.79771990741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>45104</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45883</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45322.59059027778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45280.90018518519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44862</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44524</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44522</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>45940</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>45943</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>45411</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>45945.44395833334</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44979.27921296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45555</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>45888</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45946.34836805556</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45081</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45081</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45182</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44323</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44988</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45228</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>45022</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45632</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45022</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44897</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>45740</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>45952</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44463</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45331</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45954.61589120371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45066</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44979</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45330</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45141</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44864</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44855</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>45250</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45250</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44855</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44572</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45964.76424768518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45964.75847222222</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45528</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45306</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44896</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>44970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44449</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>45140</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45672</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45974.5197337963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45974</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45630</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45713.66100694444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45979.28907407408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44957</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45209</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45244</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44991</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>45048</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>45091.32778935185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45056</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45574</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>45230</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>45993.36152777778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26172,7 +26172,7 @@
         <v>45993.32717592592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26229,7 +26229,7 @@
         <v>45993.3318287037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>45993.3421875</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>44566</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>45667</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>45993.34030092593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45993.34483796296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>45718</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>45618</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
         <v>46035.80518518519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45073</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44624</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>46037.63775462963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>45994.3796412037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>44378</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>45995.41515046296</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45995.36960648148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>46036.3375</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>45994.50392361111</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45740.36704861111</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>44791</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>45041</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27580,7 +27580,7 @@
         <v>45222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27637,7 +27637,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27694,7 +27694,7 @@
         <v>44701</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>45740.6271875</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27813,7 +27813,7 @@
         <v>44909</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>45518.57210648148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27932,7 +27932,7 @@
         <v>45271.64175925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>46000.44005787037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>46000.26596064815</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45257.43989583333</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45632</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45315</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45321</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>46044.47234953703</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44676</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44463</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>46044</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>44297</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>44297</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28688,7 +28688,7 @@
         <v>45013</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>45230</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         <v>45230</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44285</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>45551.58553240741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>45518.56827546296</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>44459</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>45163</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>44636</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>45211</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29315,7 +29315,7 @@
         <v>44979.32887731482</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>44887</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>45068</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>46056.67122685185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>45161</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29662,7 +29662,7 @@
         <v>46044</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44911</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
         <v>44425</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>44953.54269675926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29900,7 +29900,7 @@
         <v>45114.25847222222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29957,7 +29957,7 @@
         <v>45161.53572916667</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30014,7 +30014,7 @@
         <v>45012</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>45253</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>46065.39596064815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>45272</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44887</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44958</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45719.8153125</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30448,7 +30448,7 @@
         <v>44907.71084490741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>44900</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30562,7 +30562,7 @@
         <v>45072.65648148148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>46068.36966435185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>45217.47643518518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>45105</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>45114</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>45299</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>46069.62145833333</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>45189</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45082</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>46071.60819444444</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>46071.44791666666</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>45030.30835648148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>46071.47084490741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>46071.59361111111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>46071.60259259259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>46071.59018518519</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45224</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>44596</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>44887</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45169</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>44431</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31794,7 +31794,7 @@
         <v>45225</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31851,7 +31851,7 @@
         <v>45501.40141203703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>45555</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>45600.30909722222</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32027,7 +32027,7 @@
         <v>44846</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>44292</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         <v>45161.52697916667</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>45250</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>44495</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>45211</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>44814</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>45225.43978009259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>44848</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45441.51645833333</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32617,7 +32617,7 @@
         <v>44614</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>45720.40424768518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>45230</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32788,7 +32788,7 @@
         <v>45540.43818287037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45439.4372337963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>44614</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>45667</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>44902.39163194445</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>44909</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33145,7 +33145,7 @@
         <v>45327.68914351852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>45001</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44263</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>45345.53630787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44785.4987962963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33435,7 +33435,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33492,7 +33492,7 @@
         <v>44358</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33549,7 +33549,7 @@
         <v>44739</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33606,7 +33606,7 @@
         <v>45454.79756944445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>45723.44172453704</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>45752</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33782,7 +33782,7 @@
         <v>45478</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33839,7 +33839,7 @@
         <v>44425</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>45713.65885416666</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33953,7 +33953,7 @@
         <v>44580.82798611111</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34010,7 +34010,7 @@
         <v>45140</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>45755.41969907407</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34134,7 +34134,7 @@
         <v>44819.65010416666</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34191,7 +34191,7 @@
         <v>45700</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34253,7 +34253,7 @@
         <v>44769</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34310,7 +34310,7 @@
         <v>45110</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34367,7 +34367,7 @@
         <v>45250</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         <v>45733.46799768518</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34481,7 +34481,7 @@
         <v>44260</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>44263</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45211</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34652,7 +34652,7 @@
         <v>45161</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>44960</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45244</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34828,7 +34828,7 @@
         <v>45191</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34885,7 +34885,7 @@
         <v>45328</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45175</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45036.84393518518</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>44907.39300925926</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35113,7 +35113,7 @@
         <v>45365</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>45244</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>44634.55490740741</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35284,7 +35284,7 @@
         <v>45176</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44260.58606481482</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>44624</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35460,7 +35460,7 @@
         <v>45216</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
         <v>45180</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35579,7 +35579,7 @@
         <v>45256.76922453703</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35636,7 +35636,7 @@
         <v>45007</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35693,7 +35693,7 @@
         <v>45448.56204861111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35750,7 +35750,7 @@
         <v>44250</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>45386</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>44610.44100694444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35926,7 +35926,7 @@
         <v>45328.60582175926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>45014</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>45671</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>45163.40603009259</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44958</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45777</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>45777.491875</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36345,7 +36345,7 @@
         <v>45777</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45777.44011574074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36469,7 +36469,7 @@
         <v>45776.62307870371</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36526,7 +36526,7 @@
         <v>45776.80291666667</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36583,7 +36583,7 @@
         <v>45776</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45414</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45252.77672453703</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36754,7 +36754,7 @@
         <v>45350.57226851852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         <v>45789</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>45196</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44883.57304398148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44852.40068287037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>45008.36534722222</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>45624.70232638889</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44248</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>45790.37265046296</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>45790.38300925926</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45790.57600694444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45791</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>45790.585625</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37500,7 +37500,7 @@
         <v>45790.36635416667</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45790.39479166667</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37614,7 +37614,7 @@
         <v>45792</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37671,7 +37671,7 @@
         <v>45610</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37728,7 +37728,7 @@
         <v>45555</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>45797.67208333333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>45798</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37899,7 +37899,7 @@
         <v>45798.45195601852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45798.37215277777</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>45702</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45798.42364583333</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45798.38046296296</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45805</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45684.48369212963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45817.35372685185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
